--- a/examples/data-management/artifact/plan/TestPlan.xlsx
+++ b/examples/data-management/artifact/plan/TestPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lium183/projects/nexial/tutorials/examples/data-management/artifact/plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFC70BC-429B-3D45-934F-F08F0579A9F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3462148F-A101-7D48-9EAD-241DE34408C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="960" windowWidth="25600" windowHeight="15760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>description</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>PlanControl2</t>
+  </si>
+  <si>
+    <t>Base,QA1</t>
+  </si>
+  <si>
+    <t>Commons</t>
   </si>
 </sst>
 </file>
@@ -862,7 +868,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -988,7 +994,9 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F5" s="24" t="s">
         <v>9</v>
       </c>
@@ -1013,7 +1021,9 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F6" s="24" t="s">
         <v>9</v>
       </c>
